--- a/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,2152 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P9_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P9_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P20_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P20_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F3_P21_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P21_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Banks et al._2016_AMJ_Management's Science Practice Gap.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Banks et al._2016_AMJ_Management's Science Practice Gap.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F2_P11_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bishop &amp; Waring_2016_HR_Becoming Hybrid.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F1_P15_Bishop &amp; Waring_2016_HR_Becoming Hybrid.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P15_Bishop &amp; Waring_2016_HR_Becoming Hybrid.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chan &amp; Anteby_2016_ASQ_Task Segregation as a Mechanism for Within Job Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F1_P20_Chan &amp; Anteby_2016_ASQ_Task Segregation as a Mechanism for Within Job Inequality.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P20_Chan &amp; Anteby_2016_ASQ_Task Segregation as a Mechanism for Within Job Inequality.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F1_P10_Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F2_P17_Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P17_Colbert, Bono &amp; Purvanova_2016_AMJ_Flourishing Via Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F2_P14_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P14_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F3_P16_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P16_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F4_P18_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F4_P18_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F5_P31_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F5_P31_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Deken, Carlile, Berends &amp; Lauche_2016_OrgSci_Generating Novelty through Interdependent Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F1_P13_Deken, Carlile, Berends &amp; Lauche_2016_OrgSci_Generating Novelty through Interdependent Routines.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P13_Deken, Carlile, Berends &amp; Lauche_2016_OrgSci_Generating Novelty through Interdependent Routines.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F1_P4_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P4_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2_P11_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F3_P14_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P14_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F4_P16_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F4_P16_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F5_P17_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F5_P17_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F6_P18_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F6_P18_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F7_P22_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F7_P22_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F8_P31_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E23" t="n">
+        <v>32</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F8_P31_Delmestri &amp; Greenwood_2016_ASQ_How Cinderella Became a Queen.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F3_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F4_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F4_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F4_P11_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F4_P11_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>mixed line, bar, scatter plot</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F5_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E27" t="n">
+        <v>11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F5_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F8_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F8_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F9_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F9_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F10_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E30" t="n">
+        <v>17</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F10_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F11_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F11_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F12_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F12_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>mixed line, bar, scatter plot</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F1_P8_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P8_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F2_P11_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F3_P19_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P19_Graqvist &amp; Gustafsson_2016_AMJ_Temporal Institutional Work.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F1_P7_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F2_P10_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P10_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>pie chart</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F3_P18_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E38" t="n">
+        <v>19</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P18_Kallio et al._2016_HR_Ethos at Stake Performance Management and Academic Work in Universities.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Martin_2016_AMJ_Stories about Values and Valuable Storeis.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F1_P4_Martin_2016_AMJ_Stories about Values and Valuable Storeis.png</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P4_Martin_2016_AMJ_Stories about Values and Valuable Storeis.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Martin_2016_AMJ_Stories about Values and Valuable Storeis.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F2_P8_Martin_2016_AMJ_Stories about Values and Valuable Storeis.png</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P8_Martin_2016_AMJ_Stories about Values and Valuable Storeis.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Massa_2016_OrgStudies_Guardians of the Internet.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F1_P10_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Massa_2016_OrgStudies_Guardians of the Internet.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F2_P10_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P10_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Massa_2016_OrgStudies_Guardians of the Internet.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F3_P20_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P20_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F2_P7_Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P7_Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F2_P9_Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P9_Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F3_P15_Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E46" t="n">
+        <v>16</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P15_Qureshi, Kistruck &amp; Bhatt_2016_OrgStudies_The Enabling and Constraining Effects of Social Ties in the Process of Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>scatter plot</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F2_P11_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P11_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sadler-Smith+2016_HR_What Happens when you Intuit.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F2_P12_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P12_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sadler-Smith+2016_HR_What Happens when you Intuit.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F3_P14_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P14_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F1_P7_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F2_P8_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P8_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F3_P10_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P10_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F4_P18_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E53" t="n">
+        <v>19</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F4_P18_Schruder &amp; Geiger_2016_OrgSci_Unravelling the Moter of Patterning Work.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F2_P18_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E54" t="n">
+        <v>19</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P18_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Vasquez, Schoeneborn &amp; Sergi_2016_HR_Summoning the Spirits Org texts and the (dis)ordering properties of communication.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F2_P15_Vasquez, Schoeneborn &amp; Sergi_2016_HR_Summoning the Spirits Org texts and the (dis)ordering properties of communication.png</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E55" t="n">
+        <v>16</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P15_Vasquez, Schoeneborn &amp; Sergi_2016_HR_Summoning the Spirits Org texts and the (dis)ordering properties of communication.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Vasquez, Schoeneborn &amp; Sergi_2016_HR_Summoning the Spirits Org texts and the (dis)ordering properties of communication.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F3_P17_Vasquez, Schoeneborn &amp; Sergi_2016_HR_Summoning the Spirits Org texts and the (dis)ordering properties of communication.png</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F3_P17_Vasquez, Schoeneborn &amp; Sergi_2016_HR_Summoning the Spirits Org texts and the (dis)ordering properties of communication.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Whittle, Mueller, Gilchrist &amp; Lenney_2016_OrgStudies_Sensemaking Sense-Censoring and Strategic Inaction.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F1_P8_Whittle, Mueller, Gilchrist &amp; Lenney_2016_OrgStudies_Sensemaking Sense-Censoring and Strategic Inaction.png</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P8_Whittle, Mueller, Gilchrist &amp; Lenney_2016_OrgStudies_Sensemaking Sense-Censoring and Strategic Inaction.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>F2_P13_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F2_P13_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>mixed line, bar, scatter plot</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>York_2016_J Management Studies _ Exploring Environmental Entrepreneurship  Identity Coupling  Venture Goals  and.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F1_P15_York_2016_J Management Studies _ Exploring Environmental Entrepreneurship  Identity Coupling  Venture Goals  and.png</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P15_York_2016_J Management Studies _ Exploring Environmental Entrepreneurship  Identity Coupling  Venture Goals  and.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,6 +2626,487 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Banks et al._2016_AMJ_Management's Science Practice Gap.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>F1_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>F1_P13_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P13_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F1_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hennekam_2016_HR_Identity Transition during Pregnancy.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>F1_P16_Hennekam_2016_HR_Identity Transition during Pregnancy.png</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E63" t="n">
+        <v>17</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P16_Hennekam_2016_HR_Identity Transition during Pregnancy.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F1_P22_Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.png</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E64" t="n">
+        <v>23</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P22_Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Neeley &amp; Dumas_2016_AMJ_Unearned Status Gain Evidence from a Global Language Mandate.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F1_P7_Neeley &amp; Dumas_2016_AMJ_Unearned Status Gain Evidence from a Global Language Mandate.png</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Neeley &amp; Dumas_2016_AMJ_Unearned Status Gain Evidence from a Global Language Mandate.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Risi_2016_J Management Studies_ Reconsidering the  Symmetry  Between Institutionalization and Professionalization  The.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>F1_P19_Risi_2016_J Management Studies_ Reconsidering the  Symmetry  Between Institutionalization and Professionalization  The.png</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E66" t="n">
+        <v>20</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P19_Risi_2016_J Management Studies_ Reconsidering the  Symmetry  Between Institutionalization and Professionalization  The.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F1_P7_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P7_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sadler-Smith+2016_HR_What Happens when you Intuit.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>F1_P6_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P6_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sele &amp; Grand_2016_OrgSci_Unpacking the Dynamics of Ecologies of Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>F1_P6_Sele &amp; Grand_2016_OrgSci_Unpacking the Dynamics of Ecologies of Routines.png</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P6_Sele &amp; Grand_2016_OrgSci_Unpacking the Dynamics of Ecologies of Routines.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>F1_P6_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E70" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P6_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Tracey_2016_OrgSci_Spreading the Word.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>F1_P16_Tracey_2016_OrgSci_Spreading the Word.png</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E71" t="n">
+        <v>17</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P16_Tracey_2016_OrgSci_Spreading the Word.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>F1_P10_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E72" t="n">
+        <v>11</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>final_figures/2016/F1_P10_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>line graph</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>process diagram</t>
         </is>
       </c>
       <c r="I47" t="b">

--- a/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2016_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,11 +505,8 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -550,9 +542,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,9 +576,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -806,11 +777,8 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -843,11 +811,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -880,11 +845,8 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -917,11 +879,8 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -957,9 +916,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1102,11 +1049,8 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1139,11 +1083,8 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1176,11 +1117,8 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1213,11 +1151,8 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1250,11 +1185,8 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1290,9 +1222,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1324,11 +1253,8 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1361,11 +1287,8 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1401,9 +1324,6 @@
           <t>mixed line, bar, scatter plot</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1435,11 +1355,8 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1472,11 +1389,8 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1509,11 +1423,8 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1546,11 +1457,8 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1583,11 +1491,8 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1623,9 +1528,6 @@
           <t>mixed line, bar, scatter plot</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1697,9 +1596,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1731,11 +1627,8 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1771,9 +1664,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1805,11 +1695,8 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>pie chart</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
+          <t>pie chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1845,9 +1732,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1882,9 +1766,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1916,11 +1797,8 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1953,11 +1831,8 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1990,11 +1865,8 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2030,9 +1902,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2067,9 +1936,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2104,9 +1970,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2138,11 +2001,8 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>scatter plot</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+          <t>scatter plot(s)</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2178,9 +2038,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2215,9 +2072,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2252,9 +2106,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2289,9 +2140,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2326,9 +2174,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2363,9 +2208,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,9 +2242,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2437,9 +2276,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2471,11 +2307,8 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2511,9 +2344,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2548,9 +2378,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2585,9 +2412,6 @@
           <t>mixed line, bar, scatter plot</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2622,9 +2446,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2659,9 +2480,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2693,11 +2511,8 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2730,11 +2545,8 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2770,9 +2582,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2807,9 +2616,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2844,9 +2650,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2881,9 +2684,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2918,9 +2718,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2955,9 +2752,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2992,9 +2786,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3029,9 +2820,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3066,9 +2854,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3102,9 +2887,6 @@
         <is>
           <t>process diagram</t>
         </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
